--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2934851.889970035</v>
+        <v>3043494.051272846</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8518098.207658339</v>
+        <v>8523591.853646757</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>162.0021482243341</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.94942429078246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,16 +825,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>75.95717425609918</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -877,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>97.4477462406139</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -899,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>37.40802781600961</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>354.5420956997349</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,7 +913,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>29.18459135251328</v>
       </c>
       <c r="E7" t="n">
-        <v>103.3387326418228</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1111,16 +1113,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>167.544259717136</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>205.560937338488</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>178.2941864107553</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>169.2299870234509</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.11937003877873</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>231.9385164432616</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1765,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1819,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>140.176011444184</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>160.9888698962428</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="18">
@@ -2008,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>114.5006452705937</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>181.0875516841046</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>115.4863975071912</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>41.16673120696609</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>54.10799870228475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2728,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>211.147499124903</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>49.33106662725162</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>73.57849775387179</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>246.2840235835277</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3202,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>133.983849834639</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>40.1538165833283</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3430,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>71.0584634348817</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187873</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>32.84316668127826</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>106.9977768135399</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,13 +3742,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3895,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3952,16 +3954,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>33.48499328953065</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>100.5140508960362</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187887</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>105.8460632289454</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>80.5641289012158</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>844.329830759459</v>
+        <v>1182.87310169792</v>
       </c>
       <c r="C2" t="n">
-        <v>844.329830759459</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="D2" t="n">
-        <v>844.329830759459</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2274.001587366692</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1942.938700023122</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1942.938700023122</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218655</v>
+        <v>1569.472941762042</v>
       </c>
       <c r="Y2" t="n">
-        <v>844.329830759459</v>
+        <v>1569.472941762042</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
@@ -4407,25 +4409,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>520.4109910936373</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>815.114548125109</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042427</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2262.298126874724</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>701.6180721558504</v>
+        <v>938.9442613508774</v>
       </c>
       <c r="C4" t="n">
-        <v>532.6818892279435</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="D4" t="n">
-        <v>382.5652498156078</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E4" t="n">
-        <v>382.5652498156078</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386098</v>
@@ -4486,25 +4488,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234359</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U4" t="n">
-        <v>1439.817372234359</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V4" t="n">
-        <v>1439.817372234359</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="W4" t="n">
-        <v>1150.400202197398</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="X4" t="n">
-        <v>922.4106512993806</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="Y4" t="n">
-        <v>701.6180721558504</v>
+        <v>1120.592726181117</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>880.6454412161675</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="C5" t="n">
-        <v>511.6829242757557</v>
+        <v>1136.079510584979</v>
       </c>
       <c r="D5" t="n">
-        <v>473.8970375929177</v>
+        <v>1136.079510584979</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W5" t="n">
-        <v>1644.250531453059</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X5" t="n">
-        <v>1270.784773191979</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y5" t="n">
-        <v>880.6454412161675</v>
+        <v>1505.04202752539</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919905</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.6293447920665</v>
+        <v>376.3550174069661</v>
       </c>
       <c r="C7" t="n">
-        <v>155.6293447920665</v>
+        <v>376.3550174069661</v>
       </c>
       <c r="D7" t="n">
-        <v>155.6293447920665</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4747,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>927.7205539329314</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>673.0360657270445</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W7" t="n">
-        <v>383.6188956900839</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="X7" t="n">
-        <v>155.6293447920665</v>
+        <v>597.1475965504962</v>
       </c>
       <c r="Y7" t="n">
-        <v>155.6293447920665</v>
+        <v>376.3550174069661</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1246.899958573734</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>2354.702017957238</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136265</v>
+        <v>2023.639130613667</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866151</v>
+        <v>2023.639130613667</v>
       </c>
       <c r="X8" t="n">
-        <v>2862.546497866151</v>
+        <v>2023.639130613667</v>
       </c>
       <c r="Y8" t="n">
-        <v>2472.407165890339</v>
+        <v>1633.499798637855</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>483.0441129489466</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>527.322087337517</v>
+        <v>938.9442613508774</v>
       </c>
       <c r="C10" t="n">
-        <v>527.322087337517</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="D10" t="n">
-        <v>527.322087337517</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1456.350982285855</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1456.350982285855</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1456.350982285855</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995254</v>
+        <v>1166.933812248895</v>
       </c>
       <c r="X10" t="n">
-        <v>708.9705521677568</v>
+        <v>938.9442613508774</v>
       </c>
       <c r="Y10" t="n">
-        <v>708.9705521677568</v>
+        <v>938.9442613508774</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5072,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.532750177311</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>1965.532750177311</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2389.155899672379</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>641.8461362382112</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>472.9099533103043</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>322.7933138979686</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,37 +5293,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>950.7540666811333</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8178837532264</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5467,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1835.869149758807</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1581.18466155292</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.18466155292</v>
+        <v>1560.161572207406</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.195110654903</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y16" t="n">
-        <v>1132.402531511373</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="17">
@@ -5507,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5531,31 +5533,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590557</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2233.355914590557</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>2567.280686761778</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>3062.606292977537</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>3474.685803651586</v>
       </c>
       <c r="N18" t="n">
-        <v>2092.798483612593</v>
+        <v>4102.283767206192</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.2946447138415</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3584617859347</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D19" t="n">
-        <v>747.3584617859347</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429802</v>
@@ -5668,55 +5670,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1794.544361637675</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1539.859873431788</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1250.442703394828</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1022.45315249681</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138415</v>
+        <v>801.6605733532801</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5832,16 +5834,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>542.9134462654469</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3167.361685286662</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C22" t="n">
-        <v>2998.425502358755</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D22" t="n">
-        <v>2998.425502358755</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E22" t="n">
-        <v>2850.512408776362</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="F22" t="n">
-        <v>2703.622461278451</v>
+        <v>302.5953191078052</v>
       </c>
       <c r="G22" t="n">
-        <v>2536.426361993331</v>
+        <v>135.3992198226851</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>135.3992198226851</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>3388.154264430192</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>3167.361685286662</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3210.485548300425</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>3678.660617711126</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3175.341129796739</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>3006.404946868832</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>2856.288307456496</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E25" t="n">
-        <v>2708.375213874103</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3805.771724668526</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3577.782173770509</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3356.989594626978</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>2876.560776129205</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>3473.939263755757</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>4101.537227310364</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>4101.537227310364</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3118.73869457197</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>2949.802511644064</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>2799.685872231728</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2651.772778649335</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018135</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812248</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W28" t="n">
-        <v>3571.009098775287</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>3521.17973854574</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>3300.38715940221</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6449,34 +6451,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1022.872235754091</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C31" t="n">
-        <v>853.9360528261844</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W31" t="n">
-        <v>1653.302830625878</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X31" t="n">
-        <v>1425.313279727861</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.520700584331</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118213</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>2716.927329289434</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>3212.252935505192</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>3241.424143276704</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>3869.022106831311</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>4420.931837070598</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070598</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>945.4026036630049</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C34" t="n">
-        <v>776.466420735098</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>626.3497813227623</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>478.4366877403692</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>478.4366877403692</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>311.2405884552491</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741513</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806535</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630049</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="35">
@@ -6926,25 +6928,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6953,16 +6955,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2233.355914590559</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2383.002557118214</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>2716.927329289435</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>3212.252935505193</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>3212.252935505193</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>3839.8508990598</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O36" t="n">
-        <v>3997.308687575531</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.193497445482</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1022.530292372933</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>853.594109445026</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>703.4774700326902</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>1942.378057281681</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W37" t="n">
-        <v>1652.96088724472</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>1424.971336346703</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>1204.178757203173</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7156,13 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,28 +7171,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
@@ -7254,25 +7256,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>315.9123021921476</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921476</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898186995</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373306</v>
+        <v>1963.765362972545</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612593</v>
+        <v>2515.675093211832</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836018</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556949</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D40" t="n">
-        <v>415.5933575433592</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7339,7 +7341,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570818</v>
@@ -7348,34 +7350,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138415</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7406,19 +7408,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7427,7 +7429,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852256</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590559</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118214</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289435</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L42" t="n">
-        <v>3051.06265415652</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M42" t="n">
-        <v>3051.06265415652</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>3678.660617711127</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>4230.570347950414</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.193497445482</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445482</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>929.7309773356194</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E43" t="n">
         <v>631.7012443408905</v>
@@ -7600,19 +7602,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1943.637854965528</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.953366759641</v>
       </c>
       <c r="W43" t="n">
-        <v>1332.172021309389</v>
+        <v>1399.536196722681</v>
       </c>
       <c r="X43" t="n">
-        <v>1332.172021309389</v>
+        <v>1171.546645824663</v>
       </c>
       <c r="Y43" t="n">
-        <v>1111.379442165859</v>
+        <v>950.7540666811332</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>2231.588527385792</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>2726.914133601551</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M45" t="n">
-        <v>3324.292621228103</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N45" t="n">
-        <v>3951.89058478271</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O45" t="n">
-        <v>4503.800315021997</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398594</v>
+        <v>2497.745796000626</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.843151638089</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>634.9279362553159</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7831,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2298.539471851637</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2298.539471851637</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2009.464245195835</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611859</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683287</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>224.3355197601779</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.5911984019045</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,22 +8294,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>138.9393975111056</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>199.7516311504064</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>60.5001630614955</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621885</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>126.7126101431586</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>54.58448189332941</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>146.0084629450601</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>125.5341284403482</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>31.93331737597549</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>105.0969227051396</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>24.80831533903265</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>40.09910511159944</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>232.4149996343062</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>6.257951202385243</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>176.3785887617855</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>75.03697526434057</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>40.2389747530633</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>6.3108630115849</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>211.9838267404997</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25318,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>75.37549921168747</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25363,16 +25365,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>40.64330621514819</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>113.5907959652909</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>145.1398665102881</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25840,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>252.6994810997135</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>186.0089474405548</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>61.40075786968247</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>100.4621571004288</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>745037.0325279784</v>
+        <v>750978.9600290492</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>732531.3793711287</v>
+        <v>732531.3793711289</v>
       </c>
     </row>
     <row r="6">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>732531.3793711287</v>
+        <v>732531.3793711289</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846403</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365053</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="F2" t="n">
-        <v>686074.6097365057</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365054</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819062</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.139184627798386e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>86084.45926805869</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707328</v>
+        <v>6897.424496707423</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707333</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="N4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="M4" t="n">
-        <v>6897.424496707304</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.42449670736</v>
-      </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707257</v>
+        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-641713.7784627487</v>
+        <v>-641713.7784627484</v>
       </c>
       <c r="C6" t="n">
+        <v>473038.0051131706</v>
+      </c>
+      <c r="D6" t="n">
         <v>473038.0051131712</v>
       </c>
-      <c r="D6" t="n">
-        <v>311239.964114851</v>
-      </c>
       <c r="E6" t="n">
-        <v>252642.1936085359</v>
+        <v>70569.213791345</v>
       </c>
       <c r="F6" t="n">
+        <v>578054.6554158911</v>
+      </c>
+      <c r="G6" t="n">
+        <v>578054.655415891</v>
+      </c>
+      <c r="H6" t="n">
+        <v>578054.6554158911</v>
+      </c>
+      <c r="I6" t="n">
         <v>578054.6554158912</v>
       </c>
-      <c r="G6" t="n">
-        <v>578054.6554158911</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
+        <v>410449.4776059086</v>
+      </c>
+      <c r="K6" t="n">
+        <v>578054.655415891</v>
+      </c>
+      <c r="L6" t="n">
         <v>578054.6554158913</v>
       </c>
-      <c r="I6" t="n">
-        <v>578054.6554158913</v>
-      </c>
-      <c r="J6" t="n">
-        <v>410449.4776059085</v>
-      </c>
-      <c r="K6" t="n">
-        <v>578054.6554158912</v>
-      </c>
-      <c r="L6" t="n">
-        <v>529760.6854077008</v>
-      </c>
       <c r="M6" t="n">
-        <v>492999.6274803795</v>
+        <v>445447.3616869646</v>
       </c>
       <c r="N6" t="n">
-        <v>578054.6554158912</v>
+        <v>578054.655415891</v>
       </c>
       <c r="O6" t="n">
-        <v>578054.655415891</v>
+        <v>578054.6554158914</v>
       </c>
       <c r="P6" t="n">
         <v>578054.6554158913</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26792,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
@@ -26829,7 +26831,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>89.04310190412795</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>313.2885143652711</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,16 +27545,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>69.46387376683207</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27597,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>189.0752520959771</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>317.2750138046733</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>27.38827437252689</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27779,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>119.4308816656991</v>
       </c>
       <c r="E7" t="n">
-        <v>43.09523000474637</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>215.1895819463446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>45.48431278997404</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>42.45450958645662</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>56.47966836558621</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28630,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="18">
@@ -31042,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,31 +31837,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>305.5427724581384</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,25 +32080,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>558.3759638958049</v>
       </c>
       <c r="N18" t="n">
-        <v>558.3177848342784</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32341,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>316.0872899694776</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
-        <v>604.2458225991924</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>493.6049778318521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M30" t="n">
-        <v>233.9389431948329</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>171.5999003578885</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>301.644515672455</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,40 +33885,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33925,7 +33927,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33974,31 +33976,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>211.0222436375116</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>171.7382405950807</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34065,7 +34067,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
@@ -34077,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34208,13 +34210,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>227.8611086463986</v>
       </c>
       <c r="L42" t="n">
-        <v>476.0648089385462</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
@@ -34229,7 +34231,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34442,13 +34444,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34457,19 +34459,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>158.8462560123205</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>410.9230160036627</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>303.0719207327591</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>505.870729793146</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>590.9487307432803</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
@@ -35036,7 +35038,7 @@
         <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>247.0876593049803</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35422,7 +35424,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.5609983721169</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35662,7 +35664,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683806</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924728</v>
@@ -35726,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>416.2419299737867</v>
       </c>
       <c r="N18" t="n">
-        <v>426.9760727509451</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>173.4910455250332</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
-        <v>472.904110515859</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>359.6305704175218</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M30" t="n">
-        <v>91.80490927281453</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>29.46586643587019</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>159.0482712280106</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902405</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K39" t="n">
-        <v>73.1808046631526</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>37.76383318075048</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
@@ -37710,7 +37712,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
         <v>373.2618997060455</v>
@@ -37856,13 +37858,13 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>90.0196696720396</v>
       </c>
       <c r="L42" t="n">
-        <v>337.510429158672</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789214</v>
@@ -38017,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367765</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
         <v>632.079992146269</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38105,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>18.86448192629892</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3043494.051272846</v>
+        <v>3039356.894022696</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8523591.853646757</v>
+        <v>8523591.853646755</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.4218404378216</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>162.0021482243341</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705019</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>97.4477462406139</v>
+        <v>215.0160242315254</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,22 +898,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>354.5420956997349</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>64.98765364255472</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705019</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,22 +1059,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>29.18459135251328</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.781160222247936</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -1113,16 +1113,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>49.83235651299251</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>205.560937338488</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705019</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>178.2941864107553</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>50.98074812542695</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>231.9385164432616</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>160.9888698962428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>181.0875516841046</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>44.95889092250177</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>41.16673120696609</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>141.6930519056948</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>211.147499124903</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417154</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>246.2840235835277</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3192,16 +3192,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>40.1538165833283</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>106.9977768135399</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>33.48499328953065</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>80.5641289012158</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,55 +4306,55 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1182.87310169792</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="C2" t="n">
-        <v>813.9105847575083</v>
+        <v>1484.033655906823</v>
       </c>
       <c r="D2" t="n">
-        <v>455.6448861507579</v>
+        <v>1125.767957300073</v>
       </c>
       <c r="E2" t="n">
-        <v>69.85663355251364</v>
+        <v>739.9797047018285</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>328.9937999122209</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>317.3294536769139</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816076</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872904</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.47031392356</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230815</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740837</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764994</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723847</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
         <v>2437.640120926626</v>
@@ -4363,19 +4363,19 @@
         <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2274.001587366692</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>1942.938700023122</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W2" t="n">
-        <v>1942.938700023122</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="X2" t="n">
-        <v>1569.472941762042</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="Y2" t="n">
-        <v>1569.472941762042</v>
+        <v>1852.996172847235</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057909</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500112</v>
       </c>
       <c r="K3" t="n">
-        <v>520.4109910936373</v>
+        <v>298.3188265310609</v>
       </c>
       <c r="L3" t="n">
-        <v>815.114548125109</v>
+        <v>593.0223835625324</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.376567084329</v>
+        <v>956.2844025217521</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1590.463386300791</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1922.533821476952</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>938.9442613508774</v>
+        <v>788.8276219385416</v>
       </c>
       <c r="C4" t="n">
-        <v>770.0080784229705</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="D4" t="n">
         <v>619.8914390106347</v>
@@ -4485,22 +4485,22 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312191</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020473</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.637649969323</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096581</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>1123.088724245822</v>
       </c>
       <c r="O4" t="n">
         <v>1383.126566999034</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="U4" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="V4" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="W4" t="n">
-        <v>1341.385305324647</v>
+        <v>1419.258216810329</v>
       </c>
       <c r="X4" t="n">
-        <v>1341.385305324647</v>
+        <v>1191.268665912311</v>
       </c>
       <c r="Y4" t="n">
-        <v>1120.592726181117</v>
+        <v>970.4760867687813</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1505.04202752539</v>
+        <v>527.8767859460497</v>
       </c>
       <c r="C5" t="n">
-        <v>1136.079510584979</v>
+        <v>527.8767859460497</v>
       </c>
       <c r="D5" t="n">
-        <v>1136.079510584979</v>
+        <v>527.8767859460497</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>527.8767859460497</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>116.8908811564422</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800304</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800304</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800304</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.47031392356</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230815</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740837</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764994</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723847</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400152</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926622</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532446</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796626</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>1644.250531453055</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.50778578647</v>
+        <v>1291.481876182941</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.04202752539</v>
+        <v>918.0161179218615</v>
       </c>
       <c r="Y5" t="n">
-        <v>1505.04202752539</v>
+        <v>527.8767859460497</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800304</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370159</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143522</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>884.9085321458235</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1248.170551105043</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.323645957601</v>
+        <v>1635.455679701988</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>376.3550174069661</v>
+        <v>53.04593830764742</v>
       </c>
       <c r="C7" t="n">
-        <v>376.3550174069661</v>
+        <v>53.04593830764742</v>
       </c>
       <c r="D7" t="n">
-        <v>346.8756322024072</v>
+        <v>53.04593830764742</v>
       </c>
       <c r="E7" t="n">
-        <v>346.8756322024072</v>
+        <v>53.04593830764742</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>53.04593830764742</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>53.04593830764742</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>53.04593830764742</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800304</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312182</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020472</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693229</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096579</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1123.088724245822</v>
       </c>
       <c r="O7" t="n">
         <v>1383.126566999034</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.862713590078</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749939</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1114.255484944674</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485136</v>
+        <v>825.1371474485122</v>
       </c>
       <c r="V7" t="n">
-        <v>825.1371474485136</v>
+        <v>570.4526592426254</v>
       </c>
       <c r="W7" t="n">
-        <v>825.1371474485136</v>
+        <v>281.0354892056648</v>
       </c>
       <c r="X7" t="n">
-        <v>597.1475965504962</v>
+        <v>53.04593830764742</v>
       </c>
       <c r="Y7" t="n">
-        <v>376.3550174069661</v>
+        <v>53.04593830764742</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1246.899958573734</v>
+        <v>1201.12525314008</v>
       </c>
       <c r="C8" t="n">
-        <v>877.9374416333219</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="D8" t="n">
-        <v>877.9374416333219</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>62.91113280331011</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800305</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800305</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800305</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230815</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740838</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764994</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723848</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400152</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2512.003614750665</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2512.003614750665</v>
       </c>
       <c r="U8" t="n">
-        <v>2354.702017957238</v>
+        <v>2258.422554014845</v>
       </c>
       <c r="V8" t="n">
-        <v>2023.639130613667</v>
+        <v>1927.359666671274</v>
       </c>
       <c r="W8" t="n">
-        <v>2023.639130613667</v>
+        <v>1574.59101140116</v>
       </c>
       <c r="X8" t="n">
-        <v>2023.639130613667</v>
+        <v>1201.12525314008</v>
       </c>
       <c r="Y8" t="n">
-        <v>1633.499798637855</v>
+        <v>1201.12525314008</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4880,31 +4880,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800305</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370159</v>
       </c>
       <c r="K9" t="n">
-        <v>483.0441129489466</v>
+        <v>423.1489515180656</v>
       </c>
       <c r="L9" t="n">
-        <v>1117.223096727985</v>
+        <v>717.8525085495369</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1081.114527508757</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1468.399656105701</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1800.470091281863</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>938.9442613508774</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>770.0080784229705</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>619.8914390106347</v>
+        <v>346.0498276483065</v>
       </c>
       <c r="E10" t="n">
-        <v>471.9783454282416</v>
+        <v>198.1367340659134</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800305</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800305</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800305</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800305</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312182</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020472</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693229</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096579</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1123.088724245822</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="T10" t="n">
-        <v>1456.350982285855</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="U10" t="n">
-        <v>1456.350982285855</v>
+        <v>1636.446120074496</v>
       </c>
       <c r="V10" t="n">
-        <v>1456.350982285855</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>1166.933812248895</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>938.9442613508774</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>938.9442613508774</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,55 +5035,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5129,16 +5129,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1560.161572207406</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2233.355914590557</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>2567.280686761778</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>3062.606292977537</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>3474.685803651586</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>4102.283767206192</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>4654.19349744548</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6605733532801</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1794.544361637675</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1539.859873431788</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1250.442703394828</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1022.45315249681</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>801.6605733532801</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,28 +5749,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5831,25 +5831,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.5380889459582</v>
+        <v>915.1035305473698</v>
       </c>
       <c r="C22" t="n">
-        <v>599.6019060180513</v>
+        <v>746.1673476194629</v>
       </c>
       <c r="D22" t="n">
-        <v>449.4852666057155</v>
+        <v>596.0507082071272</v>
       </c>
       <c r="E22" t="n">
-        <v>449.4852666057155</v>
+        <v>448.1376146247341</v>
       </c>
       <c r="F22" t="n">
-        <v>302.5953191078052</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>135.3992198226851</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>135.3992198226851</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5913,10 +5913,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761979</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,16 +6065,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
         <v>1373.553594266881</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424041</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>383.4415877881669</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6229,7 +6229,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6241,10 +6241,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1983.7822433412</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551879</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004717</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406473</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.26572885226</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398598</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492583</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474788</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466578</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123007</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852893</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591813</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616001</v>
       </c>
     </row>
     <row r="30">
@@ -6527,40 +6527,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>671.2000270096659</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1268.578514636218</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>571.6607764188009</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.385923977512</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079494</v>
+        <v>974.1018203925707</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490406</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6894,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913855</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417938</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972545</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211832</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2044.506784258107</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7408,52 +7408,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>184.7035232280583</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532263</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1943.637854965528</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.953366759641</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1399.536196722681</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1171.546645824663</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.7540666811332</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1522.21291626627</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2074.122646505557</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2497.745796000626</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2298.539471851637</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2298.539471851637</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2009.464245195835</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1754.779756989948</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1465.362586952987</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>1237.37303605497</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>1016.58045691144</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>3.957723038183758e-12</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>224.3355197601779</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071654</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>70.03064962108152</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154998</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780673</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,16 +8306,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>199.7516311504064</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>60.5001630614955</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>342.9044714621885</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>168.7434581780672</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-12</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>54.58448189332941</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>125.5341284403482</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>105.0969227051396</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>100.4621571004295</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>40.09910511159944</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>6.922421112517554</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,16 +24654,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>6.257951202385243</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>40.2389747530633</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>211.9838267404997</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>145.1398665102881</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>252.6994810997135</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>100.4621571004288</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>750978.9600290492</v>
+        <v>750978.9600290493</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846403</v>
+        <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365055</v>
@@ -26337,25 +26337,25 @@
         <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="K2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>686074.6097365054</v>
       </c>
-      <c r="L2" t="n">
-        <v>686074.6097365058</v>
-      </c>
       <c r="M2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245469</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289269</v>
       </c>
       <c r="N3" t="n">
-        <v>3.139184627798386e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316251</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316252</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316252</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="F4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707423</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707284</v>
       </c>
       <c r="L4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707361</v>
@@ -26472,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984464</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984464</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26496,7 +26496,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-641713.7784627484</v>
+        <v>-641713.7784627478</v>
       </c>
       <c r="C6" t="n">
-        <v>473038.0051131706</v>
+        <v>473038.0051131714</v>
       </c>
       <c r="D6" t="n">
-        <v>473038.0051131712</v>
+        <v>473038.0051131714</v>
       </c>
       <c r="E6" t="n">
-        <v>70569.213791345</v>
+        <v>70221.83453698712</v>
       </c>
       <c r="F6" t="n">
-        <v>578054.6554158911</v>
+        <v>577707.2761615344</v>
       </c>
       <c r="G6" t="n">
-        <v>578054.655415891</v>
+        <v>577707.2761615345</v>
       </c>
       <c r="H6" t="n">
-        <v>578054.6554158911</v>
+        <v>577707.2761615342</v>
       </c>
       <c r="I6" t="n">
-        <v>578054.6554158912</v>
+        <v>577707.2761615341</v>
       </c>
       <c r="J6" t="n">
-        <v>410449.4776059086</v>
+        <v>410102.0983515516</v>
       </c>
       <c r="K6" t="n">
-        <v>578054.655415891</v>
+        <v>577707.2761615342</v>
       </c>
       <c r="L6" t="n">
-        <v>578054.6554158913</v>
+        <v>577707.276161534</v>
       </c>
       <c r="M6" t="n">
-        <v>445447.3616869646</v>
+        <v>445099.9824326073</v>
       </c>
       <c r="N6" t="n">
-        <v>578054.655415891</v>
+        <v>577707.2761615341</v>
       </c>
       <c r="O6" t="n">
-        <v>578054.6554158914</v>
+        <v>577707.2761615342</v>
       </c>
       <c r="P6" t="n">
-        <v>578054.6554158913</v>
+        <v>577707.276161534</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175385</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175384</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175384</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000379</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000381</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.70828809965</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175385</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241356</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26995,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996105</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996105</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996105</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>37.59671212458375</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247058</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>89.04310190412795</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>189.0752520959771</v>
+        <v>71.50697410506564</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>27.38827437252689</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>346.5600491303992</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247061</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>119.4308816656991</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>103.0154349816527</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,16 +27833,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247061</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>73.61985888580193</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>45.48431278997404</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>42.45450958645662</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951984011</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-1.396754775769736e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181056</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979353</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491897</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857139</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767376</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441729999</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342219</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.681109916659</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190641</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.877201123531</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745092</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.43766458389758</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744845</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347158</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380019</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436489</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178436</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040584</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762068</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405671</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168759</v>
       </c>
       <c r="R3" t="n">
         <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997899</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000167</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675763</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654577</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753786</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849625</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067956</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169135</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097483</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.7358189575958</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523476</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069556</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024978</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181056</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336175</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979353</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491897</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857139</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767376</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441729998</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342219</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166589</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190641</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147048</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.877201123531</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745091</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.43766458389758</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744845</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347158</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380019</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436489</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575839</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178436</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.234740417724</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040584</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762067</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405671</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378622</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168759</v>
       </c>
       <c r="R6" t="n">
         <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997899</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000165</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675763</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654577</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335767</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753786</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682317</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849625</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067956</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169135</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097483</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.7358189575958</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523476</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069555</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024978</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181056</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336175</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979353</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491897</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857139</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767376</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441729998</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342219</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166589</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190641</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147048</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.877201123531</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745091</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389758</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744845</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347158</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.40387634380019</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436489</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575839</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178436</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.234740417724</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040584</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762067</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405671</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378622</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.4624964168759</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997899</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000165</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654577</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335767</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753786</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682317</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849625</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067956</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169135</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097483</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.7358189575958</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523476</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069555</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024978</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>340.4395077511235</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>248.0319961154042</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>537.6437863443698</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,10 +32311,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>558.3759638958049</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,37 +32551,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O21" t="n">
-        <v>316.0872899694776</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32785,19 +32785,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33265,10 +33265,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L30" t="n">
-        <v>233.3139244897921</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>653.3850396373771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33736,28 +33736,28 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>653.3850396373771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>171.7382405950807</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>227.8611086463986</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34444,10 +34444,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422586</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.8462560123205</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407334</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067503</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457272</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.607173037631</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949723</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637945</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402554</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330940283</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091728</v>
       </c>
       <c r="K3" t="n">
-        <v>410.9230160036627</v>
+        <v>186.5874962434846</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378499</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820401</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.584832100039</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961227</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>319.7101787446135</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667034</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870585</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423489</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468031</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860243</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>200.996580981807</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805392</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225034</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407333</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067503</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457271</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.607173037631</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949721</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637945</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402553</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939884</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313261</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215518</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378498</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.93133228204</v>
       </c>
       <c r="N6" t="n">
-        <v>590.9487307432803</v>
+        <v>391.1970995928734</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961226</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235319</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667034</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870584</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423489</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831067</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468031</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860243</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.996580981807</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805392</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225034</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407333</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067503</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457271</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.607173037631</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949721</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637945</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402553</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939884</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313261</v>
       </c>
       <c r="K9" t="n">
-        <v>247.0876593049803</v>
+        <v>186.5874962434846</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378498</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.93133228204</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928734</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961226</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>418.4229873015991</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667034</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870584</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.4247593423489</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831067</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468031</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860243</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.996580981807</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805392</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>197.843263306679</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>395.0475418999253</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35889,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35971,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>416.2419299737867</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O21" t="n">
-        <v>173.4910455250332</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683862</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36913,10 +36913,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075149</v>
       </c>
       <c r="L30" t="n">
-        <v>94.75954470991793</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>510.7887951929326</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>510.7887951929326</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>37.76383318075048</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>90.0196696720396</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>18.86448192629892</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3039356.894022696</v>
+        <v>3041117.424325482</v>
       </c>
     </row>
     <row r="7">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>263.4218404378216</v>
+        <v>180.6261618334206</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705019</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>5.587208265760363</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>215.0160242315254</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>270.8416991175613</v>
       </c>
       <c r="G5" t="n">
-        <v>64.98765364255472</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705019</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.781160222247936</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>103.2588014327185</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>49.83235651299251</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>192.2415752082167</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705019</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>90.69811547110045</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542695</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1381,10 +1381,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.0291980517616</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>3.475606507923444</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417106</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>44.95889092250177</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417154</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>59.44001103519365</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>107.5419779170877</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>60.46574022124193</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>147.6895341487369</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1852.996172847235</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="C2" t="n">
-        <v>1484.033655906823</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="D2" t="n">
-        <v>1125.767957300073</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="E2" t="n">
-        <v>739.9797047018285</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="F2" t="n">
-        <v>328.9937999122209</v>
+        <v>715.7758545264326</v>
       </c>
       <c r="G2" t="n">
-        <v>317.3294536769139</v>
+        <v>300.0711042507214</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816076</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872904</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.47031392356</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230815</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740837</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764994</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723847</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847235</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>1852.996172847235</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X2" t="n">
-        <v>1852.996172847235</v>
+        <v>1126.76175931604</v>
       </c>
       <c r="Y2" t="n">
-        <v>1852.996172847235</v>
+        <v>1126.76175931604</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057909</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500112</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310609</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625324</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217521</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.463386300791</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1922.533821476952</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.04689843412</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>788.8276219385416</v>
+        <v>944.5879060637666</v>
       </c>
       <c r="C4" t="n">
-        <v>619.8914390106347</v>
+        <v>775.6517231358597</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106347</v>
+        <v>625.5350837235239</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282416</v>
+        <v>477.6219901411308</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>330.7320426432204</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>162.745577951499</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020473</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.637649969323</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096581</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245822</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
         <v>1383.126566999034</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1419.258216810329</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X4" t="n">
-        <v>1191.268665912311</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="Y4" t="n">
-        <v>970.4760867687813</v>
+        <v>1126.236370894006</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>527.8767859460497</v>
+        <v>1449.505074804839</v>
       </c>
       <c r="C5" t="n">
-        <v>527.8767859460497</v>
+        <v>1080.542557864427</v>
       </c>
       <c r="D5" t="n">
-        <v>527.8767859460497</v>
+        <v>722.276859257677</v>
       </c>
       <c r="E5" t="n">
-        <v>527.8767859460497</v>
+        <v>336.4886066594327</v>
       </c>
       <c r="F5" t="n">
-        <v>116.8908811564422</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800304</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800304</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800304</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872906</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.47031392356</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230815</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740837</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764994</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723847</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400152</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926622</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532446</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453055</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182941</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X5" t="n">
-        <v>918.0161179218615</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y5" t="n">
-        <v>527.8767859460497</v>
+        <v>1836.104914868961</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800304</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370159</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143522</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458235</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105043</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701988</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878149</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.04593830764742</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>53.04593830764742</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>53.04593830764742</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>53.04593830764742</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>53.04593830764742</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>53.04593830764742</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>53.04593830764742</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800304</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312182</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020472</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693229</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096579</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245822</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
         <v>1383.126566999034</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590078</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749939</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944674</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485122</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>570.4526592426254</v>
+        <v>1532.144300445488</v>
       </c>
       <c r="W7" t="n">
-        <v>281.0354892056648</v>
+        <v>1242.727130408528</v>
       </c>
       <c r="X7" t="n">
-        <v>53.04593830764742</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.04593830764742</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1201.12525314008</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="C8" t="n">
-        <v>832.1627361996682</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>473.8970375929177</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
         <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331011</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800305</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800305</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800305</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230815</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740838</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764994</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723848</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400152</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2512.003614750665</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2512.003614750665</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2258.422554014845</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1927.359666671274</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1574.59101140116</v>
+        <v>2368.155919098926</v>
       </c>
       <c r="X8" t="n">
-        <v>1201.12525314008</v>
+        <v>1994.690160837846</v>
       </c>
       <c r="Y8" t="n">
-        <v>1201.12525314008</v>
+        <v>1604.550828862034</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4880,31 +4880,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800305</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370159</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180656</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495369</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508757</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105701</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1800.470091281863</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483065</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659134</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800305</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800305</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800305</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800305</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312182</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020472</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693229</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096579</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245822</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074496</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074496</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074496</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="11">
@@ -5020,73 +5020,73 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,13 +5114,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5129,10 +5129,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578601</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>352.5519571452613</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="17">
@@ -5509,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5542,10 +5542,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5588,13 +5588,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K18" t="n">
         <v>577.3880777468471</v>
@@ -5603,13 +5603,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5770,7 +5770,7 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5779,25 +5779,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,13 +5825,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
         <v>577.3880777468471</v>
@@ -5840,10 +5840,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>915.1035305473698</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>746.1673476194629</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D22" t="n">
-        <v>596.0507082071272</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>448.1376146247341</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5980,13 +5980,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6001,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,37 +6217,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6308,19 +6308,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551879</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611467</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004717</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406473</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6481,34 +6481,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.26572885226</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398598</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492583</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474788</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466578</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123007</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852893</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591813</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866616001</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,34 +6527,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188009</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057739</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797196</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797196</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925707</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490406</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6782,19 +6782,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6837,19 +6837,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>198.027470314254</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6928,7 +6928,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7025,10 +7025,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7165,19 +7165,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7402,13 +7402,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7499,10 +7499,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>516.5309703533131</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>516.5309703533131</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>369.6410228554028</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>202.4449235702827</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.957723038183758e-12</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,25 +8063,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>211.0329012241558</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071654</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>70.03064962108152</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154998</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780673</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>168.7434581780672</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>5.115907697472721e-12</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.7088678813207</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>100.4621571004295</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>86.99395161137552</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>32.75273492913618</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>750978.9600290493</v>
+        <v>750978.9600290492</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>732531.3793711287</v>
+        <v>732531.3793711289</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>732531.3793711287</v>
+        <v>732531.3793711289</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>732531.3793711287</v>
+        <v>732531.3793711289</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846405</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
     </row>
     <row r="3">
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245469</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.472210965141715e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.998458032928817e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099826</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289269</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316251</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.7268316252</v>
+        <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.7268316252</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707403</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707422</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707412</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707396</v>
       </c>
       <c r="I4" t="n">
         <v>6897.424496707359</v>
@@ -26444,22 +26444,22 @@
         <v>6897.424496707359</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707284</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="M4" t="n">
-        <v>6897.424496707359</v>
-      </c>
       <c r="N4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984464</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984464</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26496,7 +26496,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-641713.7784627478</v>
+        <v>-641713.7784627486</v>
       </c>
       <c r="C6" t="n">
-        <v>473038.0051131714</v>
+        <v>473038.0051131712</v>
       </c>
       <c r="D6" t="n">
-        <v>473038.0051131714</v>
+        <v>473038.0051131712</v>
       </c>
       <c r="E6" t="n">
-        <v>70221.83453698712</v>
+        <v>70534.47586590976</v>
       </c>
       <c r="F6" t="n">
-        <v>577707.2761615344</v>
+        <v>578019.9174904553</v>
       </c>
       <c r="G6" t="n">
-        <v>577707.2761615345</v>
+        <v>578019.9174904557</v>
       </c>
       <c r="H6" t="n">
-        <v>577707.2761615342</v>
+        <v>578019.9174904553</v>
       </c>
       <c r="I6" t="n">
-        <v>577707.2761615341</v>
+        <v>578019.9174904556</v>
       </c>
       <c r="J6" t="n">
-        <v>410102.0983515516</v>
+        <v>410414.7396804729</v>
       </c>
       <c r="K6" t="n">
-        <v>577707.2761615342</v>
+        <v>578019.9174904556</v>
       </c>
       <c r="L6" t="n">
-        <v>577707.276161534</v>
+        <v>578019.9174904556</v>
       </c>
       <c r="M6" t="n">
-        <v>445099.9824326073</v>
+        <v>445412.6237615285</v>
       </c>
       <c r="N6" t="n">
-        <v>577707.2761615341</v>
+        <v>578019.9174904554</v>
       </c>
       <c r="O6" t="n">
-        <v>577707.2761615342</v>
+        <v>578019.9174904553</v>
       </c>
       <c r="P6" t="n">
-        <v>577707.276161534</v>
+        <v>578019.9174904553</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.063161046444251e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26703,19 +26703,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.063161046444251e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.063161046444251e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175385</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175384</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175384</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000379</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000381</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.70828809965</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.063161046444251e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175385</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241356</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996105</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996105</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.063161046444251e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996105</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>37.59671212458375</v>
+        <v>120.3923907289847</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247058</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27441,10 +27441,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>141.6643008893685</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>71.50697410506564</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>136.0343466241501</v>
       </c>
       <c r="G5" t="n">
-        <v>346.5600491303992</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247061</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>103.0154349816527</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>148.8788418911095</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247061</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>73.61985888580193</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>156.9993935091964</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>130.0505805261115</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951984011</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>9.337103248939477e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>8.038590482916834e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.396754775769736e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181056</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979353</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491897</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857139</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767376</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441729999</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342219</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.681109916659</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190641</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.877201123531</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745092</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389758</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744845</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347158</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380019</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436489</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178436</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040584</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762068</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405671</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168759</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
         <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997899</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000167</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675763</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654577</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335768</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753786</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849625</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067956</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169135</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097483</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.7358189575958</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523476</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069556</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024978</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181056</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336175</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979353</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491897</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857139</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767376</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441729998</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342219</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166589</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190641</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147048</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.877201123531</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745091</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389758</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744845</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347158</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380019</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436489</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575839</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178436</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.234740417724</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040584</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762067</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405671</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378622</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168759</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
         <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997899</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000165</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675763</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654577</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335767</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753786</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682317</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849625</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067956</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169135</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097483</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.7358189575958</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523476</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069555</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024978</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181056</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336175</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979353</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491897</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857139</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767376</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441729998</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342219</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166589</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190641</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147048</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.877201123531</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745091</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389758</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744845</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347158</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380019</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436489</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575839</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178436</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.234740417724</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040584</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762067</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405671</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378622</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168759</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997899</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000165</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654577</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335767</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753786</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682317</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849625</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067956</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169135</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097483</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.7358189575958</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523476</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069555</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024978</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O12" t="n">
-        <v>606.5820696732821</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>248.0319961154042</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,25 +32314,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200311</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32791,7 +32791,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>379.8551982710416</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>379.8551982710416</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,13 +33511,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33745,13 +33745,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34219,13 +34219,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>400.5469039565762</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407334</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067503</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457272</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.607173037631</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949723</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637945</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402554</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330940283</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091728</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434846</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378499</v>
+        <v>508.7132618620059</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820401</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.584832100039</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961227</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>319.7101787446135</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667034</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870585</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423489</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468031</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860243</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295068</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>200.996580981807</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805392</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225034</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407333</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067503</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457271</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.607173037631</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949721</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637945</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402553</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939884</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313261</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215518</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378498</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.93133228204</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928734</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961226</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235319</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667034</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977082</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870584</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423489</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831067</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468031</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860243</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295068</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.996580981807</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805392</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225034</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407333</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067503</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457271</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.607173037631</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949721</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637945</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402553</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939884</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313261</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434846</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378498</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.93133228204</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928734</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961226</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>418.4229873015991</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667034</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977082</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870584</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423489</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831067</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468031</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860243</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295068</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.996580981807</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805392</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O12" t="n">
-        <v>463.9858252288377</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>110.1905571410452</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366978</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36439,7 +36439,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>242.0137592966826</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683862</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075149</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>242.0137592966826</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37326,10 +37326,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>257.9506595121318</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
